--- a/haas/temp/did_efficiency.xlsx
+++ b/haas/temp/did_efficiency.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcheng8/Downloads/pci-passthrough/haas/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499A9A13-5A4E-A448-8A9D-BEA21BF799B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32539F5-DC09-754D-BA64-AE0832C45B1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="16840" windowHeight="15320" xr2:uid="{7AF5B203-3DCA-7442-8F34-6A1F58C56F38}"/>
+    <workbookView xWindow="7420" yWindow="460" windowWidth="16840" windowHeight="15320" activeTab="1" xr2:uid="{7AF5B203-3DCA-7442-8F34-6A1F58C56F38}"/>
   </bookViews>
   <sheets>
-    <sheet name="did_efficiency" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="2" r:id="rId1"/>
+    <sheet name="did_efficiency" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,6 +28,179 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+  <si>
+    <t>1CPU, 2 iperf threads</t>
+  </si>
+  <si>
+    <t>BANDWIDTH (Mbps)</t>
+  </si>
+  <si>
+    <t>NIC INTERRUPT (Hz)</t>
+  </si>
+  <si>
+    <t>EARLY TIMER INTERRUPT (Hz)</t>
+  </si>
+  <si>
+    <t>LOCAL TIMER INTERRUPT (Hz)</t>
+  </si>
+  <si>
+    <t>WRMSR VM EXIT</t>
+  </si>
+  <si>
+    <t>TIMER INTERRUPT VM EXIT</t>
+  </si>
+  <si>
+    <t>HOST</t>
+  </si>
+  <si>
+    <t>933.99 ± 2.14</t>
+  </si>
+  <si>
+    <t>4607 ± 12</t>
+  </si>
+  <si>
+    <t>353 ± 2</t>
+  </si>
+  <si>
+    <t>GUEST</t>
+  </si>
+  <si>
+    <t>934.33 ± 2.62</t>
+  </si>
+  <si>
+    <t>4634 ± 23</t>
+  </si>
+  <si>
+    <t>354 ± 1</t>
+  </si>
+  <si>
+    <t>GUEST + DTID</t>
+  </si>
+  <si>
+    <t>934.42 ± 2.00</t>
+  </si>
+  <si>
+    <t>4343± 30</t>
+  </si>
+  <si>
+    <t>4339 ± 30</t>
+  </si>
+  <si>
+    <t>352 ± 1</t>
+  </si>
+  <si>
+    <t>INFINIBAND (Gbps)</t>
+  </si>
+  <si>
+    <t>33.43 ± 0.18</t>
+  </si>
+  <si>
+    <t>57663 ± 548</t>
+  </si>
+  <si>
+    <t>354 ± 2</t>
+  </si>
+  <si>
+    <t>35.52 ± 0.20</t>
+  </si>
+  <si>
+    <t>63743 ± 557</t>
+  </si>
+  <si>
+    <t>35.66 ± 0.17</t>
+  </si>
+  <si>
+    <t>54213 ± 347</t>
+  </si>
+  <si>
+    <t>54165 ± 346</t>
+  </si>
+  <si>
+    <t>2CPU, 2 iperf threads</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>37.50 ± 0.12</t>
+  </si>
+  <si>
+    <t>144716 ± 455</t>
+  </si>
+  <si>
+    <t>251 ± 3</t>
+  </si>
+  <si>
+    <t>37.28 ± 0.33</t>
+  </si>
+  <si>
+    <t>349 ± 16</t>
+  </si>
+  <si>
+    <t>123862 ± 1273</t>
+  </si>
+  <si>
+    <t>255 ± 16</t>
+  </si>
+  <si>
+    <t>36.36 ± 1.32</t>
+  </si>
+  <si>
+    <t>1799 ± 165</t>
+  </si>
+  <si>
+    <t>349 ± 17</t>
+  </si>
+  <si>
+    <t>115262 ± 782</t>
+  </si>
+  <si>
+    <t>110880 ± 826</t>
+  </si>
+  <si>
+    <t>255 ± 17</t>
+  </si>
+  <si>
+    <t>EARLY vCPU/pCPU</t>
+  </si>
+  <si>
+    <t>BAREMETAL</t>
+  </si>
+  <si>
+    <t>GUEST: NO DTID</t>
+  </si>
+  <si>
+    <t>GUEST: DTID</t>
+  </si>
+  <si>
+    <t>0 ± 0</t>
+  </si>
+  <si>
+    <t>1 ± 1</t>
+  </si>
+  <si>
+    <t>9 ± 2</t>
+  </si>
+  <si>
+    <t>2 ± 2</t>
+  </si>
+  <si>
+    <t>ONTIME  vCPU/pCPU</t>
+  </si>
+  <si>
+    <t>251 ± 1</t>
+  </si>
+  <si>
+    <t>254 ± 1</t>
+  </si>
+  <si>
+    <t>250 ± 0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,13 +549,519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F683110F-78B0-0F40-AD2F-E77E0E7072AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1344A5-4098-A444-B52B-2C0C8AD766FC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F683110F-78B0-0F40-AD2F-E77E0E7072AB}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>353</v>
+      </c>
+      <c r="G3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>352</v>
+      </c>
+      <c r="G8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>1904</v>
+      </c>
+      <c r="H15">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>1414</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/haas/temp/did_efficiency.xlsx
+++ b/haas/temp/did_efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcheng8/Downloads/pci-passthrough/haas/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32539F5-DC09-754D-BA64-AE0832C45B1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B62894-5CE6-B340-83AA-F90430DE6D72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="460" windowWidth="16840" windowHeight="15320" activeTab="1" xr2:uid="{7AF5B203-3DCA-7442-8F34-6A1F58C56F38}"/>
   </bookViews>
@@ -171,12 +171,6 @@
     <t>BAREMETAL</t>
   </si>
   <si>
-    <t>GUEST: NO DTID</t>
-  </si>
-  <si>
-    <t>GUEST: DTID</t>
-  </si>
-  <si>
     <t>0 ± 0</t>
   </si>
   <si>
@@ -199,6 +193,12 @@
   </si>
   <si>
     <t>250 ± 0</t>
+  </si>
+  <si>
+    <t>OPTI GUEST</t>
+  </si>
+  <si>
+    <t>DTID GUEST</t>
   </si>
 </sst>
 </file>
@@ -234,8 +234,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,501 +567,498 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F683110F-78B0-0F40-AD2F-E77E0E7072AB}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>353</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>352</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1904</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>1099</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16">
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>1414</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C18">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>3</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>4</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>6</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>7</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>8</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" t="s">
+      <c r="J24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1">
+        <v>8</v>
+      </c>
+      <c r="K27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="D30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>7</v>
-      </c>
-      <c r="J27">
-        <v>8</v>
-      </c>
-      <c r="K27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/haas/temp/did_efficiency.xlsx
+++ b/haas/temp/did_efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcheng8/Downloads/pci-passthrough/haas/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B62894-5CE6-B340-83AA-F90430DE6D72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E54594C-CDA5-5240-AB97-B0497504FE95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7420" yWindow="460" windowWidth="16840" windowHeight="15320" activeTab="1" xr2:uid="{7AF5B203-3DCA-7442-8F34-6A1F58C56F38}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="summary" sheetId="2" r:id="rId1"/>
     <sheet name="did_efficiency" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>1CPU, 2 iperf threads</t>
   </si>
@@ -199,6 +199,105 @@
   </si>
   <si>
     <t>DTID GUEST</t>
+  </si>
+  <si>
+    <t>WRMSR VM EXIT (Hz)</t>
+  </si>
+  <si>
+    <t>TIMER INTERRUPT VM EXIT (Hz)</t>
+  </si>
+  <si>
+    <t>PREEMPTION TIMER VM EXIT (Hz)</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>37.39|0.07</t>
+  </si>
+  <si>
+    <t>118592|620</t>
+  </si>
+  <si>
+    <t>256|1</t>
+  </si>
+  <si>
+    <t>mellanox</t>
+  </si>
+  <si>
+    <t>348|1</t>
+  </si>
+  <si>
+    <t>iperf</t>
+  </si>
+  <si>
+    <t>250|0</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>37.37|0.01</t>
+  </si>
+  <si>
+    <t>123024|1709</t>
+  </si>
+  <si>
+    <t>347|2</t>
+  </si>
+  <si>
+    <t>37.35|0.08</t>
+  </si>
+  <si>
+    <t>110856|260</t>
+  </si>
+  <si>
+    <t>100114|865</t>
+  </si>
+  <si>
+    <t>255|1</t>
+  </si>
+  <si>
+    <t>3933|43</t>
+  </si>
+  <si>
+    <t>348|2</t>
+  </si>
+  <si>
+    <t>IDLE</t>
+  </si>
+  <si>
+    <t>EPT_MISCONFIG</t>
+  </si>
+  <si>
+    <t>EXTERNAL_INTERRUPT</t>
+  </si>
+  <si>
+    <t>IO_INSTRUCTION</t>
+  </si>
+  <si>
+    <t>MSR_READ</t>
+  </si>
+  <si>
+    <t>MSR_WRITE</t>
+  </si>
+  <si>
+    <t>PREEMPTION_TIMER</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>BUSY</t>
+  </si>
+  <si>
+    <t>EPT_VIOLATION</t>
+  </si>
+  <si>
+    <t>CYCLICTEST</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
   </si>
 </sst>
 </file>
@@ -565,15 +664,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F683110F-78B0-0F40-AD2F-E77E0E7072AB}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.83203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -947,12 +1047,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1024,12 +1124,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -1059,6 +1159,453 @@
       </c>
       <c r="K30" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="J34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="J36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37">
+        <v>3017</v>
+      </c>
+      <c r="H37">
+        <v>499</v>
+      </c>
+      <c r="I37" s="1">
+        <v>601</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="J39" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40">
+        <v>2500</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41"/>
+      <c r="J41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="J42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1">
+        <v>64</v>
+      </c>
+      <c r="C47" s="1">
+        <v>29993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1110</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="1">
+        <v>120</v>
+      </c>
+      <c r="C49" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="1">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1">
+        <v>30308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>30295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="1">
+        <f>SUM(B46:B51)</f>
+        <v>1314</v>
+      </c>
+      <c r="C52" s="1">
+        <f>SUM(C46:C51)</f>
+        <v>91826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="1">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1">
+        <v>29892</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1110</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="1">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="1">
+        <v>149942</v>
+      </c>
+      <c r="C59" s="1">
+        <v>180973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>36048</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="1">
+        <v>128</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="1">
+        <f>SUM(B56:B61)</f>
+        <v>151359</v>
+      </c>
+      <c r="C62" s="1">
+        <f>SUM(C56:C61)</f>
+        <v>248106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
